--- a/state manual.xlsx
+++ b/state manual.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CK\Desktop\projects\surveybot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethanchen/Project/survey-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70070005-3270-2B45-A359-7615A2F6EDA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9285"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>State</t>
   </si>
@@ -41,24 +42,6 @@
     <t>First time login</t>
   </si>
   <si>
-    <t>In the past 30min, did you receive at least 1 text message from your parents?</t>
-  </si>
-  <si>
-    <t>What platform did you receive the message on?</t>
-  </si>
-  <si>
-    <t>Were you satisfied with the conversation?</t>
-  </si>
-  <si>
-    <t>Did you use any of the following "textspeak" features?</t>
-  </si>
-  <si>
-    <t>In this conversation, my parent used text-speak correctly.</t>
-  </si>
-  <si>
-    <t>In this conversation, I appreciated my parent's use of textspeak</t>
-  </si>
-  <si>
     <t>Session timed out</t>
   </si>
   <si>
@@ -68,18 +51,6 @@
     <t>When the earlier question was sent, I was:</t>
   </si>
   <si>
-    <t>Please select: (if option 'b' is selected in state 3)</t>
-  </si>
-  <si>
-    <t>Please explain: (Only if option 'a' or 'b' is selected in state 8)</t>
-  </si>
-  <si>
-    <t>Please specify: (if option 'g' is selected in state 5)</t>
-  </si>
-  <si>
-    <t>Which parent</t>
-  </si>
-  <si>
     <t>Survey questions</t>
   </si>
   <si>
@@ -89,22 +60,40 @@
     <t>Thank you for your feedback!</t>
   </si>
   <si>
-    <t>If option 'e' is not selected in state 9</t>
-  </si>
-  <si>
-    <t>Please specify: (if option 'd' is selected in state 9)</t>
-  </si>
-  <si>
     <t>Please specify: (If option 'e' is chosen in state 14)</t>
   </si>
   <si>
-    <t>On a scale of 1-5, with '1' being Not at all cool and '5' being Extremely cool, rate how cool you think your parent is.</t>
+    <t>On a scale of 1-5 (1 = not at all, 5 = very much so), rate this statement: 'Right now, I feel happy. (include 5 buttons for participants to select their choice)</t>
+  </si>
+  <si>
+    <t>In the past 20 minutes, I was with (select all that apply):</t>
+  </si>
+  <si>
+    <t>if option 'E' in state 3</t>
+  </si>
+  <si>
+    <t>On a scale of 1-5 (1 = completed excluded, 5 = completed included), rate your interaction with the person/people you were with in the past 20 minutes. The person/people I was with made me feel:</t>
+  </si>
+  <si>
+    <t>n the past 20 minutes, the people/person I was with:</t>
+  </si>
+  <si>
+    <t>In the past 20 minutes, the people/person I was with used their mobile phone. Which of these were true?</t>
+  </si>
+  <si>
+    <t>if 'yes' in state 6</t>
+  </si>
+  <si>
+    <t>if 'C' in state 8</t>
+  </si>
+  <si>
+    <t>Please elaborate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,7 +103,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,12 +119,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -164,14 +147,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -265,6 +247,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -300,6 +299,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -475,20 +491,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="29.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="92.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="92.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
         <v>0</v>
       </c>
@@ -496,7 +512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>5</v>
       </c>
@@ -507,7 +523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D3" s="1">
         <v>1</v>
       </c>
@@ -515,7 +531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D4" s="1">
         <v>2</v>
       </c>
@@ -523,142 +539,113 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="2">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="4">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="4">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="D7" s="4">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D15" s="5">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D16" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="2">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="D10" s="2">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D17" s="5">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="D11" s="2">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="D12" s="2">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="D13" s="2">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="D14" s="2">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="5">
+      <c r="E19" t="s">
         <v>11</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="D17" s="5">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="D18" s="5">
-        <v>13</v>
-      </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="6">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="D21" s="6">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="D22" s="6">
-        <v>16</v>
-      </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="6">
-        <v>17</v>
-      </c>
-      <c r="E24" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -667,24 +654,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
